--- a/src/main/resources/testdata/crmpro/ConfigLayout.xlsx
+++ b/src/main/resources/testdata/crmpro/ConfigLayout.xlsx
@@ -11,7 +11,6 @@
     <sheet name="RecordField" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1:G9"/>
 </workbook>
 </file>
 
@@ -831,9 +830,7 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="RecordType" dataDxfId="8"/>
-    <tableColumn id="2" name="RecordTypeName" dataDxfId="7">
-      <calculatedColumnFormula>IF(TabelaField[[#This Row],[RecordType]]="","",VLOOKUP(TabelaField[[#This Row],[RecordType]],TabelaRecordType[#All],2,0))</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" name="RecordTypeName" dataDxfId="7"/>
     <tableColumn id="3" name="RecordField" dataDxfId="6"/>
     <tableColumn id="4" name="RecordFieldName" dataDxfId="5"/>
     <tableColumn id="6" name="RecordFieldStart" dataDxfId="4"/>
@@ -1135,7 +1132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1177,7 +1174,7 @@
       </c>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1186,7 +1183,7 @@
       </c>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -1195,9 +1192,6 @@
       </c>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
@@ -1208,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,7 +1221,7 @@
     <col min="9" max="9" width="65.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1256,14 +1250,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="str">
-        <f>IF(TabelaField[[#This Row],[RecordType]]="","",VLOOKUP(TabelaField[[#This Row],[RecordType]],TabelaRecordType[#All],2,0))</f>
-        <v>FileHeader</v>
-      </c>
+      <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1281,14 +1272,11 @@
       <c r="H2" s="7"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="str">
-        <f>IF(TabelaField[[#This Row],[RecordType]]="","",VLOOKUP(TabelaField[[#This Row],[RecordType]],TabelaRecordType[#All],2,0))</f>
-        <v>FileHeader</v>
-      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1306,14 +1294,11 @@
       <c r="H3" s="7"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="str">
-        <f>IF(TabelaField[[#This Row],[RecordType]]="","",VLOOKUP(TabelaField[[#This Row],[RecordType]],TabelaRecordType[#All],2,0))</f>
-        <v>FileHeader</v>
-      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1331,14 +1316,11 @@
       <c r="H4" s="7"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="15" t="str">
-        <f>IF(TabelaField[[#This Row],[RecordType]]="","",VLOOKUP(TabelaField[[#This Row],[RecordType]],TabelaRecordType[#All],2,0))</f>
-        <v>FinancialTransaction</v>
-      </c>
+      <c r="B5" s="15"/>
       <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1356,14 +1338,11 @@
       <c r="H5" s="17"/>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="20" t="str">
-        <f>IF(TabelaField[[#This Row],[RecordType]]="","",VLOOKUP(TabelaField[[#This Row],[RecordType]],TabelaRecordType[#All],2,0))</f>
-        <v>FinancialTransaction</v>
-      </c>
+      <c r="B6" s="20"/>
       <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
@@ -1381,14 +1360,11 @@
       <c r="H6" s="21"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="20" t="str">
-        <f>IF(TabelaField[[#This Row],[RecordType]]="","",VLOOKUP(TabelaField[[#This Row],[RecordType]],TabelaRecordType[#All],2,0))</f>
-        <v>FinancialTransaction</v>
-      </c>
+      <c r="B7" s="20"/>
       <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
@@ -1406,14 +1382,11 @@
       <c r="H7" s="21"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="26" t="str">
-        <f>IF(TabelaField[[#This Row],[RecordType]]="","",VLOOKUP(TabelaField[[#This Row],[RecordType]],TabelaRecordType[#All],2,0))</f>
-        <v>FinancialTransaction</v>
-      </c>
+      <c r="B8" s="26"/>
       <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
@@ -1431,14 +1404,11 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="26" t="str">
-        <f>IF(TabelaField[[#This Row],[RecordType]]="","",VLOOKUP(TabelaField[[#This Row],[RecordType]],TabelaRecordType[#All],2,0))</f>
-        <v>FinancialTransaction</v>
-      </c>
+      <c r="B9" s="26"/>
       <c r="C9" s="25" t="s">
         <v>18</v>
       </c>
@@ -1456,14 +1426,11 @@
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="20" t="str">
-        <f>IF(TabelaField[[#This Row],[RecordType]]="","",VLOOKUP(TabelaField[[#This Row],[RecordType]],TabelaRecordType[#All],2,0))</f>
-        <v>FinancialTransactionDetail</v>
-      </c>
+      <c r="B10" s="20"/>
       <c r="C10" s="27" t="s">
         <v>0</v>
       </c>
@@ -1481,14 +1448,11 @@
       <c r="H10" s="21"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="20" t="str">
-        <f>IF(TabelaField[[#This Row],[RecordType]]="","",VLOOKUP(TabelaField[[#This Row],[RecordType]],TabelaRecordType[#All],2,0))</f>
-        <v>FinancialTransactionDetail</v>
-      </c>
+      <c r="B11" s="20"/>
       <c r="C11" s="27" t="s">
         <v>24</v>
       </c>
@@ -1506,14 +1470,11 @@
       <c r="H11" s="21"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="20" t="str">
-        <f>IF(TabelaField[[#This Row],[RecordType]]="","",VLOOKUP(TabelaField[[#This Row],[RecordType]],TabelaRecordType[#All],2,0))</f>
-        <v>FinancialTransactionDetail</v>
-      </c>
+      <c r="B12" s="20"/>
       <c r="C12" s="25" t="s">
         <v>25</v>
       </c>
@@ -1531,14 +1492,11 @@
       <c r="H12" s="21"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20" t="str">
-        <f>IF(TabelaField[[#This Row],[RecordType]]="","",VLOOKUP(TabelaField[[#This Row],[RecordType]],TabelaRecordType[#All],2,0))</f>
-        <v>FinancialTransactionDetail</v>
-      </c>
+      <c r="B13" s="20"/>
       <c r="C13" s="27" t="s">
         <v>18</v>
       </c>
@@ -1556,14 +1514,11 @@
       <c r="H13" s="21"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="str">
-        <f>IF(TabelaField[[#This Row],[RecordType]]="","",VLOOKUP(TabelaField[[#This Row],[RecordType]],TabelaRecordType[#All],2,0))</f>
-        <v>FileFooter</v>
-      </c>
+      <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
         <v>0</v>
       </c>
@@ -1581,14 +1536,11 @@
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="str">
-        <f>IF(TabelaField[[#This Row],[RecordType]]="","",VLOOKUP(TabelaField[[#This Row],[RecordType]],TabelaRecordType[#All],2,0))</f>
-        <v>FileFooter</v>
-      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="11" t="s">
         <v>19</v>
       </c>
@@ -1606,14 +1558,11 @@
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="26" t="str">
-        <f>IF(TabelaField[[#This Row],[RecordType]]="","",VLOOKUP(TabelaField[[#This Row],[RecordType]],TabelaRecordType[#All],2,0))</f>
-        <v>FileFooter</v>
-      </c>
+      <c r="B16" s="26"/>
       <c r="C16" s="8" t="s">
         <v>18</v>
       </c>

--- a/src/main/resources/testdata/crmpro/ConfigLayout.xlsx
+++ b/src/main/resources/testdata/crmpro/ConfigLayout.xlsx
@@ -388,7 +388,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="000"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -529,7 +529,7 @@
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -830,13 +830,15 @@
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="RecordType" dataDxfId="8"/>
-    <tableColumn id="2" name="RecordTypeName" dataDxfId="7"/>
+    <tableColumn id="2" name="RecordTypeName" dataDxfId="7">
+      <calculatedColumnFormula>VLOOKUP(A2,RecordType!A$1:C$5,2,0)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="3" name="RecordField" dataDxfId="6"/>
     <tableColumn id="4" name="RecordFieldName" dataDxfId="5"/>
     <tableColumn id="6" name="RecordFieldStart" dataDxfId="4"/>
     <tableColumn id="7" name="RecordFieldEnd" dataDxfId="3"/>
     <tableColumn id="8" name="RecordFieldSize" dataDxfId="2">
-      <calculatedColumnFormula>TabelaField[[#This Row],[RecordFieldEnd]]-TabelaField[[#This Row],[RecordFieldStart]]+1</calculatedColumnFormula>
+      <calculatedColumnFormula>F2-E2+1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="RecordFieldFormat" dataDxfId="1"/>
     <tableColumn id="10" name="Obs" dataDxfId="0"/>
@@ -1204,9 +1206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1254,7 +1254,10 @@
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6" t="str">
+        <f>VLOOKUP(A2,RecordType!A$1:C$5,2,0)</f>
+        <v>FileHeader</v>
+      </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="23">
-        <f>TabelaField[[#This Row],[RecordFieldEnd]]-TabelaField[[#This Row],[RecordFieldStart]]+1</f>
+        <f t="shared" ref="G2:G16" si="0">F2-E2+1</f>
         <v>2</v>
       </c>
       <c r="H2" s="7"/>
@@ -1276,7 +1279,10 @@
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="str">
+        <f>VLOOKUP(A3,RecordType!A$1:C$5,2,0)</f>
+        <v>FileHeader</v>
+      </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1288,7 +1294,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="23">
-        <f>TabelaField[[#This Row],[RecordFieldEnd]]-TabelaField[[#This Row],[RecordFieldStart]]+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H3" s="7"/>
@@ -1298,7 +1304,10 @@
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="str">
+        <f>VLOOKUP(A4,RecordType!A$1:C$5,2,0)</f>
+        <v>FileHeader</v>
+      </c>
       <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1310,7 +1319,7 @@
         <v>80</v>
       </c>
       <c r="G4" s="23">
-        <f>TabelaField[[#This Row],[RecordFieldEnd]]-TabelaField[[#This Row],[RecordFieldStart]]+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H4" s="7"/>
@@ -1320,7 +1329,10 @@
       <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="15" t="str">
+        <f>VLOOKUP(A5,RecordType!A$1:C$5,2,0)</f>
+        <v>FinancialTransaction</v>
+      </c>
       <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="23">
-        <f>TabelaField[[#This Row],[RecordFieldEnd]]-TabelaField[[#This Row],[RecordFieldStart]]+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H5" s="17"/>
@@ -1342,7 +1354,10 @@
       <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="20" t="str">
+        <f>VLOOKUP(A6,RecordType!A$1:C$5,2,0)</f>
+        <v>FinancialTransaction</v>
+      </c>
       <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
@@ -1354,7 +1369,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="23">
-        <f>TabelaField[[#This Row],[RecordFieldEnd]]-TabelaField[[#This Row],[RecordFieldStart]]+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H6" s="21"/>
@@ -1364,7 +1379,10 @@
       <c r="A7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="20" t="str">
+        <f>VLOOKUP(A7,RecordType!A$1:C$5,2,0)</f>
+        <v>FinancialTransaction</v>
+      </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
@@ -1376,7 +1394,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="24">
-        <f>TabelaField[[#This Row],[RecordFieldEnd]]-TabelaField[[#This Row],[RecordFieldStart]]+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H7" s="21"/>
@@ -1386,7 +1404,10 @@
       <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="26" t="str">
+        <f>VLOOKUP(A8,RecordType!A$1:C$5,2,0)</f>
+        <v>FinancialTransaction</v>
+      </c>
       <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
@@ -1398,7 +1419,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="24">
-        <f>TabelaField[[#This Row],[RecordFieldEnd]]-TabelaField[[#This Row],[RecordFieldStart]]+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H8" s="11"/>
@@ -1408,7 +1429,10 @@
       <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="26" t="str">
+        <f>VLOOKUP(A9,RecordType!A$1:C$5,2,0)</f>
+        <v>FinancialTransaction</v>
+      </c>
       <c r="C9" s="25" t="s">
         <v>18</v>
       </c>
@@ -1420,7 +1444,7 @@
         <v>80</v>
       </c>
       <c r="G9" s="24">
-        <f>TabelaField[[#This Row],[RecordFieldEnd]]-TabelaField[[#This Row],[RecordFieldStart]]+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H9" s="11"/>
@@ -1430,7 +1454,10 @@
       <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="20" t="str">
+        <f>VLOOKUP(A10,RecordType!A$1:C$5,2,0)</f>
+        <v>FinancialTransactionDetail</v>
+      </c>
       <c r="C10" s="27" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="28">
-        <f>TabelaField[[#This Row],[RecordFieldEnd]]-TabelaField[[#This Row],[RecordFieldStart]]+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H10" s="21"/>
@@ -1452,7 +1479,10 @@
       <c r="A11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="20" t="str">
+        <f>VLOOKUP(A11,RecordType!A$1:C$5,2,0)</f>
+        <v>FinancialTransactionDetail</v>
+      </c>
       <c r="C11" s="27" t="s">
         <v>24</v>
       </c>
@@ -1464,7 +1494,7 @@
         <v>32</v>
       </c>
       <c r="G11" s="28">
-        <f>TabelaField[[#This Row],[RecordFieldEnd]]-TabelaField[[#This Row],[RecordFieldStart]]+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="H11" s="21"/>
@@ -1474,7 +1504,10 @@
       <c r="A12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="20" t="str">
+        <f>VLOOKUP(A12,RecordType!A$1:C$5,2,0)</f>
+        <v>FinancialTransactionDetail</v>
+      </c>
       <c r="C12" s="25" t="s">
         <v>25</v>
       </c>
@@ -1486,7 +1519,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="28">
-        <f>TabelaField[[#This Row],[RecordFieldEnd]]-TabelaField[[#This Row],[RecordFieldStart]]+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H12" s="21"/>
@@ -1496,7 +1529,10 @@
       <c r="A13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="20" t="str">
+        <f>VLOOKUP(A13,RecordType!A$1:C$5,2,0)</f>
+        <v>FinancialTransactionDetail</v>
+      </c>
       <c r="C13" s="27" t="s">
         <v>18</v>
       </c>
@@ -1508,7 +1544,7 @@
         <v>80</v>
       </c>
       <c r="G13" s="28">
-        <f>TabelaField[[#This Row],[RecordFieldEnd]]-TabelaField[[#This Row],[RecordFieldStart]]+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H13" s="21"/>
@@ -1518,7 +1554,10 @@
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="10" t="str">
+        <f>VLOOKUP(A14,RecordType!A$1:C$5,2,0)</f>
+        <v>FileFooter</v>
+      </c>
       <c r="C14" s="11" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="24">
-        <f>TabelaField[[#This Row],[RecordFieldEnd]]-TabelaField[[#This Row],[RecordFieldStart]]+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H14" s="11"/>
@@ -1540,7 +1579,10 @@
       <c r="A15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="10" t="str">
+        <f>VLOOKUP(A15,RecordType!A$1:C$5,2,0)</f>
+        <v>FileFooter</v>
+      </c>
       <c r="C15" s="11" t="s">
         <v>19</v>
       </c>
@@ -1552,7 +1594,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="24">
-        <f>TabelaField[[#This Row],[RecordFieldEnd]]-TabelaField[[#This Row],[RecordFieldStart]]+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H15" s="11"/>
@@ -1562,7 +1604,10 @@
       <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="26" t="str">
+        <f>VLOOKUP(A16,RecordType!A$1:C$5,2,0)</f>
+        <v>FileFooter</v>
+      </c>
       <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
@@ -1574,7 +1619,7 @@
         <v>80</v>
       </c>
       <c r="G16" s="24">
-        <f>TabelaField[[#This Row],[RecordFieldEnd]]-TabelaField[[#This Row],[RecordFieldStart]]+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H16" s="11"/>
